--- a/Development Test/Resources/slotsAllocations.xlsx
+++ b/Development Test/Resources/slotsAllocations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smendu\source\repos\Development Test\Development Test\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smendu\source\repos\Development Test\Development Test\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Cell ID</t>
   </si>
@@ -31,6 +31,63 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -345,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -368,185 +425,269 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>34</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>536660</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>183800</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>34</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>537032</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>184006</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>34</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>537109</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>183884</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>537110</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>184695</v>
       </c>
       <c r="D5">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>537206</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>184685</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>537248</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>185016</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>23</v>
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>537250</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>185020</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>23</v>
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>537267</v>
       </c>
       <c r="C9">
-        <v>323</v>
+        <v>184783</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>23</v>
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>537269</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>183451</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>23</v>
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>537270</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>184140</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>537356</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>184927</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>537380</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>184727</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
-        <v>123</v>
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>537458</v>
       </c>
       <c r="C14">
-        <v>6778</v>
+        <v>184495</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>537604</v>
+      </c>
+      <c r="C15">
+        <v>184134</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>537720</v>
+      </c>
+      <c r="C16">
+        <v>184057</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>537905</v>
+      </c>
+      <c r="C17">
+        <v>184591</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>537910</v>
+      </c>
+      <c r="C18">
+        <v>184441</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>537953</v>
+      </c>
+      <c r="C19">
+        <v>184295</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>538050</v>
+      </c>
+      <c r="C20">
+        <v>184245</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
